--- a/oil_module_dev/backend/app/output.xlsx
+++ b/oil_module_dev/backend/app/output.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="50">
   <si>
     <t>Unnamed: 0</t>
   </si>
@@ -141,6 +141,30 @@
   </si>
   <si>
     <t>Well_17</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>0.9</t>
+  </si>
+  <si>
+    <t>0.5</t>
+  </si>
+  <si>
+    <t>0.3</t>
+  </si>
+  <si>
+    <t>0.8</t>
+  </si>
+  <si>
+    <t>0.6</t>
+  </si>
+  <si>
+    <t>max_coeff = 1</t>
+  </si>
+  <si>
+    <t>min_coeff = 0</t>
   </si>
 </sst>
 </file>
@@ -699,13 +723,13 @@
         <v>360</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>370</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>380</v>
       </c>
       <c r="P3">
-        <v>642.833333333333</v>
+        <v>390</v>
       </c>
       <c r="Q3">
         <v>400</v>
@@ -714,7 +738,7 @@
         <v>410</v>
       </c>
       <c r="S3">
-        <v>1615.384615384615</v>
+        <v>420</v>
       </c>
       <c r="T3">
         <v>430</v>
@@ -726,7 +750,7 @@
         <v>450</v>
       </c>
       <c r="W3">
-        <v>0</v>
+        <v>460</v>
       </c>
       <c r="X3">
         <v>470</v>
@@ -1007,10 +1031,10 @@
         <v>35</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="O7">
-        <v>20.33333333333303</v>
+        <v>35</v>
       </c>
       <c r="P7">
         <v>35</v>
@@ -1022,7 +1046,7 @@
         <v>35</v>
       </c>
       <c r="S7">
-        <v>175</v>
+        <v>35</v>
       </c>
       <c r="T7">
         <v>35</v>
@@ -1034,7 +1058,7 @@
         <v>35</v>
       </c>
       <c r="W7">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="X7">
         <v>35</v>
@@ -1084,10 +1108,10 @@
         <v>45</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="P8">
         <v>45</v>
@@ -1111,7 +1135,7 @@
         <v>45</v>
       </c>
       <c r="W8">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="X8">
         <v>45</v>
@@ -1392,10 +1416,10 @@
         <v>85</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="P12">
         <v>85</v>
@@ -1407,7 +1431,7 @@
         <v>85</v>
       </c>
       <c r="S12">
-        <v>369.5652173913043</v>
+        <v>85</v>
       </c>
       <c r="T12">
         <v>85</v>
@@ -1419,7 +1443,7 @@
         <v>85</v>
       </c>
       <c r="W12">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="X12">
         <v>85</v>
@@ -1897,7 +1921,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y18"/>
+  <dimension ref="A1:Y23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1984,8 +2008,8 @@
       <c r="A2" t="s">
         <v>25</v>
       </c>
-      <c r="B2">
-        <v>1</v>
+      <c r="B2" t="s">
+        <v>42</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -2061,8 +2085,8 @@
       <c r="A3" t="s">
         <v>26</v>
       </c>
-      <c r="B3">
-        <v>0.9</v>
+      <c r="B3" t="s">
+        <v>43</v>
       </c>
       <c r="C3">
         <v>0.1</v>
@@ -2098,13 +2122,13 @@
         <v>0.2</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.21</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>0.22</v>
       </c>
       <c r="P3">
-        <v>0.3791068376068374</v>
+        <v>0.23</v>
       </c>
       <c r="Q3">
         <v>0.24</v>
@@ -2113,7 +2137,7 @@
         <v>0.25</v>
       </c>
       <c r="S3">
-        <v>1</v>
+        <v>0.26</v>
       </c>
       <c r="T3">
         <v>0.27</v>
@@ -2125,7 +2149,7 @@
         <v>0.29</v>
       </c>
       <c r="W3">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="X3">
         <v>0.31</v>
@@ -2138,8 +2162,8 @@
       <c r="A4" t="s">
         <v>27</v>
       </c>
-      <c r="B4">
-        <v>0.5</v>
+      <c r="B4" t="s">
+        <v>44</v>
       </c>
       <c r="C4">
         <v>0.6</v>
@@ -2215,8 +2239,8 @@
       <c r="A5" t="s">
         <v>28</v>
       </c>
-      <c r="B5">
-        <v>1</v>
+      <c r="B5" t="s">
+        <v>42</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -2252,7 +2276,7 @@
         <v>1</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O5">
         <v>1</v>
@@ -2279,7 +2303,7 @@
         <v>1</v>
       </c>
       <c r="W5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X5">
         <v>1</v>
@@ -2292,8 +2316,8 @@
       <c r="A6" t="s">
         <v>29</v>
       </c>
-      <c r="B6">
-        <v>1</v>
+      <c r="B6" t="s">
+        <v>42</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -2369,8 +2393,8 @@
       <c r="A7" t="s">
         <v>30</v>
       </c>
-      <c r="B7">
-        <v>0.3</v>
+      <c r="B7" t="s">
+        <v>45</v>
       </c>
       <c r="C7">
         <v>0.4</v>
@@ -2406,10 +2430,10 @@
         <v>0.14</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="O7">
-        <v>0.09295238095237957</v>
+        <v>0.16</v>
       </c>
       <c r="P7">
         <v>0.17</v>
@@ -2421,7 +2445,7 @@
         <v>0.19</v>
       </c>
       <c r="S7">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="T7">
         <v>0.21</v>
@@ -2433,7 +2457,7 @@
         <v>0.23</v>
       </c>
       <c r="W7">
-        <v>0</v>
+        <v>0.24</v>
       </c>
       <c r="X7">
         <v>0.25</v>
@@ -2446,8 +2470,8 @@
       <c r="A8" t="s">
         <v>31</v>
       </c>
-      <c r="B8">
-        <v>1</v>
+      <c r="B8" t="s">
+        <v>42</v>
       </c>
       <c r="C8">
         <v>2</v>
@@ -2483,10 +2507,10 @@
         <v>12</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="P8">
         <v>15</v>
@@ -2510,7 +2534,7 @@
         <v>21</v>
       </c>
       <c r="W8">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="X8">
         <v>23</v>
@@ -2523,8 +2547,8 @@
       <c r="A9" t="s">
         <v>32</v>
       </c>
-      <c r="B9">
-        <v>0.8</v>
+      <c r="B9" t="s">
+        <v>46</v>
       </c>
       <c r="C9">
         <v>0.9</v>
@@ -2600,8 +2624,8 @@
       <c r="A10" t="s">
         <v>33</v>
       </c>
-      <c r="B10">
-        <v>1</v>
+      <c r="B10" t="s">
+        <v>42</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -2677,8 +2701,8 @@
       <c r="A11" t="s">
         <v>34</v>
       </c>
-      <c r="B11">
-        <v>1</v>
+      <c r="B11" t="s">
+        <v>42</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -2754,8 +2778,8 @@
       <c r="A12" t="s">
         <v>35</v>
       </c>
-      <c r="B12">
-        <v>0.6</v>
+      <c r="B12" t="s">
+        <v>47</v>
       </c>
       <c r="C12">
         <v>0.7</v>
@@ -2791,10 +2815,10 @@
         <v>0.17</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.18</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>0.19</v>
       </c>
       <c r="P12">
         <v>0.2</v>
@@ -2806,7 +2830,7 @@
         <v>0.22</v>
       </c>
       <c r="S12">
-        <v>1</v>
+        <v>0.23</v>
       </c>
       <c r="T12">
         <v>0.24</v>
@@ -2818,7 +2842,7 @@
         <v>0.26</v>
       </c>
       <c r="W12">
-        <v>0</v>
+        <v>0.27</v>
       </c>
       <c r="X12">
         <v>0.28</v>
@@ -2831,8 +2855,8 @@
       <c r="A13" t="s">
         <v>36</v>
       </c>
-      <c r="B13">
-        <v>1</v>
+      <c r="B13" t="s">
+        <v>42</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -2908,8 +2932,8 @@
       <c r="A14" t="s">
         <v>37</v>
       </c>
-      <c r="B14">
-        <v>1</v>
+      <c r="B14" t="s">
+        <v>42</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -2985,8 +3009,8 @@
       <c r="A15" t="s">
         <v>38</v>
       </c>
-      <c r="B15">
-        <v>1</v>
+      <c r="B15" t="s">
+        <v>42</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -3062,8 +3086,8 @@
       <c r="A16" t="s">
         <v>39</v>
       </c>
-      <c r="B16">
-        <v>1</v>
+      <c r="B16" t="s">
+        <v>42</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -3139,8 +3163,8 @@
       <c r="A17" t="s">
         <v>40</v>
       </c>
-      <c r="B17">
-        <v>1</v>
+      <c r="B17" t="s">
+        <v>42</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -3216,8 +3240,8 @@
       <c r="A18" t="s">
         <v>41</v>
       </c>
-      <c r="B18">
-        <v>1</v>
+      <c r="B18" t="s">
+        <v>42</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -3287,6 +3311,16 @@
       </c>
       <c r="Y18">
         <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25">
+      <c r="B22" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25">
+      <c r="B23" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/oil_module_dev/backend/app/output.xlsx
+++ b/oil_module_dev/backend/app/output.xlsx
@@ -732,7 +732,7 @@
         <v>390</v>
       </c>
       <c r="Q3">
-        <v>400</v>
+        <v>1666.666666666667</v>
       </c>
       <c r="R3">
         <v>410</v>
@@ -809,7 +809,7 @@
         <v>50</v>
       </c>
       <c r="Q4">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="R4">
         <v>50</v>
@@ -1040,7 +1040,7 @@
         <v>35</v>
       </c>
       <c r="Q7">
-        <v>35</v>
+        <v>194.4444444444445</v>
       </c>
       <c r="R7">
         <v>35</v>
@@ -1194,7 +1194,7 @@
         <v>55</v>
       </c>
       <c r="Q9">
-        <v>55</v>
+        <v>239.1304347826087</v>
       </c>
       <c r="R9">
         <v>55</v>
@@ -2131,7 +2131,7 @@
         <v>0.23</v>
       </c>
       <c r="Q3">
-        <v>0.24</v>
+        <v>1</v>
       </c>
       <c r="R3">
         <v>0.25</v>
@@ -2208,7 +2208,7 @@
         <v>0.19</v>
       </c>
       <c r="Q4">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="R4">
         <v>0.21</v>
@@ -2439,7 +2439,7 @@
         <v>0.17</v>
       </c>
       <c r="Q7">
-        <v>0.18</v>
+        <v>1</v>
       </c>
       <c r="R7">
         <v>0.19</v>
@@ -2593,7 +2593,7 @@
         <v>0.22</v>
       </c>
       <c r="Q9">
-        <v>0.23</v>
+        <v>1</v>
       </c>
       <c r="R9">
         <v>0.24</v>
